--- a/Template/Example/Договоры.xlsx
+++ b/Template/Example/Договоры.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\DEV\ImportData\Template\Example\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Git_reposites\rx-util-importdata\Template\Example\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -16,14 +16,14 @@
     <sheet name="Ошибки" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист 1'!$A$1:$S$22</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Лист 1'!$A$1:$T$22</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="52">
   <si>
     <t>Содержание</t>
   </si>
@@ -173,6 +173,12 @@
   </si>
   <si>
     <t>18.12.2018 15:23:32</t>
+  </si>
+  <si>
+    <t>Наша организация</t>
+  </si>
+  <si>
+    <t>ООО "Наша организация"</t>
   </si>
 </sst>
 </file>
@@ -775,10 +781,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S22"/>
+  <dimension ref="A1:T22"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="N40" sqref="N40"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -789,23 +795,24 @@
     <col min="4" max="4" width="16.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="33.85546875" style="16" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="20" style="16" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="44.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="8.7109375" style="23" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="26.5703125" style="22" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.140625" style="16" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
-    <col min="20" max="16384" width="9.140625" style="16"/>
+    <col min="7" max="7" width="20" style="16" customWidth="1"/>
+    <col min="8" max="8" width="15.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="44.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="20" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="13.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="23" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="15.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="11.7109375" style="22" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="26.5703125" style="22" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.140625" style="16" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="9.5703125" style="16" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="15.28515625" style="16" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="13.42578125" style="16" bestFit="1" customWidth="1"/>
+    <col min="21" max="16384" width="9.140625" style="16"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:20" s="6" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>25</v>
       </c>
@@ -825,46 +832,49 @@
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="H1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="I1" s="5" t="s">
+      <c r="J1" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="J1" s="5" t="s">
+      <c r="K1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="K1" s="5" t="s">
+      <c r="L1" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="L1" s="5" t="s">
+      <c r="M1" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="M1" s="5" t="s">
+      <c r="N1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="N1" s="5" t="s">
+      <c r="O1" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="5" t="s">
+      <c r="P1" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="P1" s="5" t="s">
+      <c r="Q1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="Q1" s="31" t="s">
+      <c r="R1" s="31" t="s">
         <v>40</v>
       </c>
-      <c r="R1" s="31" t="s">
+      <c r="S1" s="31" t="s">
         <v>41</v>
       </c>
-      <c r="S1" s="31" t="s">
+      <c r="T1" s="31" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A2" s="7" t="s">
         <v>42</v>
       </c>
@@ -884,40 +894,43 @@
         <v>14</v>
       </c>
       <c r="G2" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H2" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H2" s="13" t="s">
+      <c r="I2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="14">
+      <c r="J2" s="14">
         <v>40410</v>
       </c>
-      <c r="J2" s="14">
+      <c r="K2" s="14">
         <v>42235</v>
       </c>
-      <c r="K2" s="15">
+      <c r="L2" s="15">
         <v>10000</v>
       </c>
-      <c r="L2" s="14" t="s">
+      <c r="M2" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="N2" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N2" s="11"/>
       <c r="O2" s="11"/>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="Q2" s="32" t="s">
+      <c r="R2" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="R2" s="32" t="s">
+      <c r="S2" s="32" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="33"/>
-    </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T2" s="33"/>
+    </row>
+    <row r="3" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A3" s="7" t="s">
         <v>43</v>
       </c>
@@ -937,40 +950,43 @@
         <v>15</v>
       </c>
       <c r="G3" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="H3" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="I3" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="I3" s="14">
+      <c r="J3" s="14">
         <v>40861</v>
       </c>
-      <c r="J3" s="14">
+      <c r="K3" s="14">
         <v>42236</v>
       </c>
-      <c r="K3" s="15">
+      <c r="L3" s="15">
         <v>200000</v>
       </c>
-      <c r="L3" s="14" t="s">
+      <c r="M3" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>24</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="O3" s="11"/>
       <c r="P3" s="11"/>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="11"/>
+      <c r="R3" s="32" t="s">
         <v>47</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="S3" s="32" t="s">
         <v>49</v>
       </c>
-      <c r="S3" s="34"/>
-    </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="T3" s="34"/>
+    </row>
+    <row r="4" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="9"/>
@@ -978,20 +994,21 @@
       <c r="E4" s="11"/>
       <c r="F4" s="12"/>
       <c r="G4" s="12"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="14"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13"/>
       <c r="J4" s="14"/>
-      <c r="K4" s="15"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="11"/>
+      <c r="K4" s="14"/>
+      <c r="L4" s="15"/>
+      <c r="M4" s="14"/>
       <c r="N4" s="11"/>
       <c r="O4" s="11"/>
       <c r="P4" s="11"/>
-      <c r="Q4" s="32"/>
+      <c r="Q4" s="11"/>
       <c r="R4" s="32"/>
-      <c r="S4" s="33"/>
-    </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S4" s="32"/>
+      <c r="T4" s="33"/>
+    </row>
+    <row r="5" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A5" s="7"/>
       <c r="B5" s="8"/>
       <c r="C5" s="9"/>
@@ -999,20 +1016,21 @@
       <c r="E5" s="11"/>
       <c r="F5" s="12"/>
       <c r="G5" s="12"/>
-      <c r="H5" s="13"/>
-      <c r="I5" s="14"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13"/>
       <c r="J5" s="14"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="14"/>
-      <c r="M5" s="27"/>
-      <c r="N5" s="11"/>
+      <c r="K5" s="14"/>
+      <c r="L5" s="15"/>
+      <c r="M5" s="14"/>
+      <c r="N5" s="27"/>
       <c r="O5" s="11"/>
       <c r="P5" s="11"/>
-      <c r="Q5" s="32"/>
+      <c r="Q5" s="11"/>
       <c r="R5" s="32"/>
-      <c r="S5" s="33"/>
-    </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S5" s="32"/>
+      <c r="T5" s="33"/>
+    </row>
+    <row r="6" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A6" s="7"/>
       <c r="B6" s="8"/>
       <c r="C6" s="9"/>
@@ -1020,20 +1038,21 @@
       <c r="E6" s="11"/>
       <c r="F6" s="12"/>
       <c r="G6" s="12"/>
-      <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="13"/>
       <c r="J6" s="14"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="11"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="15"/>
+      <c r="M6" s="14"/>
       <c r="N6" s="11"/>
       <c r="O6" s="11"/>
       <c r="P6" s="11"/>
-      <c r="Q6" s="32"/>
+      <c r="Q6" s="11"/>
       <c r="R6" s="32"/>
-      <c r="S6" s="33"/>
-    </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S6" s="32"/>
+      <c r="T6" s="33"/>
+    </row>
+    <row r="7" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A7" s="7"/>
       <c r="B7" s="8"/>
       <c r="C7" s="9"/>
@@ -1041,20 +1060,21 @@
       <c r="E7" s="11"/>
       <c r="F7" s="12"/>
       <c r="G7" s="12"/>
-      <c r="H7" s="13"/>
-      <c r="I7" s="14"/>
+      <c r="H7" s="12"/>
+      <c r="I7" s="13"/>
       <c r="J7" s="14"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="14"/>
-      <c r="M7" s="11"/>
+      <c r="K7" s="14"/>
+      <c r="L7" s="15"/>
+      <c r="M7" s="14"/>
       <c r="N7" s="11"/>
       <c r="O7" s="11"/>
       <c r="P7" s="11"/>
-      <c r="Q7" s="32"/>
+      <c r="Q7" s="11"/>
       <c r="R7" s="32"/>
-      <c r="S7" s="33"/>
-    </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S7" s="32"/>
+      <c r="T7" s="33"/>
+    </row>
+    <row r="8" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A8" s="7"/>
       <c r="B8" s="8"/>
       <c r="C8" s="9"/>
@@ -1062,20 +1082,21 @@
       <c r="E8" s="11"/>
       <c r="F8" s="12"/>
       <c r="G8" s="12"/>
-      <c r="H8" s="13"/>
-      <c r="I8" s="14"/>
+      <c r="H8" s="12"/>
+      <c r="I8" s="13"/>
       <c r="J8" s="14"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="14"/>
-      <c r="M8" s="11"/>
+      <c r="K8" s="14"/>
+      <c r="L8" s="15"/>
+      <c r="M8" s="14"/>
       <c r="N8" s="11"/>
       <c r="O8" s="11"/>
       <c r="P8" s="11"/>
-      <c r="Q8" s="32"/>
+      <c r="Q8" s="11"/>
       <c r="R8" s="32"/>
-      <c r="S8" s="33"/>
-    </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S8" s="32"/>
+      <c r="T8" s="33"/>
+    </row>
+    <row r="9" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A9" s="7"/>
       <c r="B9" s="8"/>
       <c r="C9" s="9"/>
@@ -1083,20 +1104,21 @@
       <c r="E9" s="11"/>
       <c r="F9" s="12"/>
       <c r="G9" s="12"/>
-      <c r="H9" s="13"/>
-      <c r="I9" s="14"/>
+      <c r="H9" s="12"/>
+      <c r="I9" s="13"/>
       <c r="J9" s="14"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="14"/>
-      <c r="M9" s="11"/>
+      <c r="K9" s="14"/>
+      <c r="L9" s="15"/>
+      <c r="M9" s="14"/>
       <c r="N9" s="11"/>
       <c r="O9" s="11"/>
       <c r="P9" s="11"/>
-      <c r="Q9" s="32"/>
+      <c r="Q9" s="11"/>
       <c r="R9" s="32"/>
-      <c r="S9" s="33"/>
-    </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S9" s="32"/>
+      <c r="T9" s="33"/>
+    </row>
+    <row r="10" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A10" s="7"/>
       <c r="B10" s="8"/>
       <c r="C10" s="9"/>
@@ -1104,20 +1126,21 @@
       <c r="E10" s="11"/>
       <c r="F10" s="12"/>
       <c r="G10" s="12"/>
-      <c r="H10" s="13"/>
-      <c r="I10" s="14"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="13"/>
       <c r="J10" s="14"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="14"/>
-      <c r="M10" s="11"/>
+      <c r="K10" s="14"/>
+      <c r="L10" s="15"/>
+      <c r="M10" s="14"/>
       <c r="N10" s="11"/>
       <c r="O10" s="11"/>
       <c r="P10" s="11"/>
-      <c r="Q10" s="32"/>
+      <c r="Q10" s="11"/>
       <c r="R10" s="32"/>
-      <c r="S10" s="33"/>
-    </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S10" s="32"/>
+      <c r="T10" s="33"/>
+    </row>
+    <row r="11" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A11" s="7"/>
       <c r="B11" s="8"/>
       <c r="C11" s="9"/>
@@ -1125,20 +1148,21 @@
       <c r="E11" s="11"/>
       <c r="F11" s="12"/>
       <c r="G11" s="12"/>
-      <c r="H11" s="13"/>
-      <c r="I11" s="14"/>
+      <c r="H11" s="12"/>
+      <c r="I11" s="13"/>
       <c r="J11" s="14"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="14"/>
-      <c r="M11" s="11"/>
+      <c r="K11" s="14"/>
+      <c r="L11" s="15"/>
+      <c r="M11" s="14"/>
       <c r="N11" s="11"/>
       <c r="O11" s="11"/>
       <c r="P11" s="11"/>
-      <c r="Q11" s="32"/>
+      <c r="Q11" s="11"/>
       <c r="R11" s="32"/>
-      <c r="S11" s="33"/>
-    </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S11" s="32"/>
+      <c r="T11" s="33"/>
+    </row>
+    <row r="12" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A12" s="7"/>
       <c r="B12" s="8"/>
       <c r="C12" s="9"/>
@@ -1146,20 +1170,21 @@
       <c r="E12" s="11"/>
       <c r="F12" s="12"/>
       <c r="G12" s="12"/>
-      <c r="H12" s="13"/>
-      <c r="I12" s="14"/>
+      <c r="H12" s="12"/>
+      <c r="I12" s="13"/>
       <c r="J12" s="14"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="14"/>
-      <c r="M12" s="11"/>
+      <c r="K12" s="14"/>
+      <c r="L12" s="15"/>
+      <c r="M12" s="14"/>
       <c r="N12" s="11"/>
       <c r="O12" s="11"/>
       <c r="P12" s="11"/>
-      <c r="Q12" s="32"/>
+      <c r="Q12" s="11"/>
       <c r="R12" s="32"/>
-      <c r="S12" s="33"/>
-    </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S12" s="32"/>
+      <c r="T12" s="33"/>
+    </row>
+    <row r="13" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A13" s="7"/>
       <c r="B13" s="8"/>
       <c r="C13" s="9"/>
@@ -1167,20 +1192,21 @@
       <c r="E13" s="11"/>
       <c r="F13" s="12"/>
       <c r="G13" s="12"/>
-      <c r="H13" s="13"/>
-      <c r="I13" s="14"/>
+      <c r="H13" s="12"/>
+      <c r="I13" s="13"/>
       <c r="J13" s="14"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="14"/>
-      <c r="M13" s="11"/>
+      <c r="K13" s="14"/>
+      <c r="L13" s="15"/>
+      <c r="M13" s="14"/>
       <c r="N13" s="11"/>
       <c r="O13" s="11"/>
       <c r="P13" s="11"/>
-      <c r="Q13" s="32"/>
+      <c r="Q13" s="11"/>
       <c r="R13" s="32"/>
-      <c r="S13" s="33"/>
-    </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S13" s="32"/>
+      <c r="T13" s="33"/>
+    </row>
+    <row r="14" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A14" s="7"/>
       <c r="B14" s="8"/>
       <c r="C14" s="9"/>
@@ -1188,20 +1214,21 @@
       <c r="E14" s="11"/>
       <c r="F14" s="12"/>
       <c r="G14" s="12"/>
-      <c r="H14" s="13"/>
-      <c r="I14" s="14"/>
+      <c r="H14" s="12"/>
+      <c r="I14" s="13"/>
       <c r="J14" s="14"/>
-      <c r="K14" s="15"/>
-      <c r="L14" s="14"/>
-      <c r="M14" s="11"/>
+      <c r="K14" s="14"/>
+      <c r="L14" s="15"/>
+      <c r="M14" s="14"/>
       <c r="N14" s="11"/>
       <c r="O14" s="11"/>
       <c r="P14" s="11"/>
-      <c r="Q14" s="32"/>
+      <c r="Q14" s="11"/>
       <c r="R14" s="32"/>
-      <c r="S14" s="33"/>
-    </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S14" s="32"/>
+      <c r="T14" s="33"/>
+    </row>
+    <row r="15" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A15" s="7"/>
       <c r="B15" s="8"/>
       <c r="C15" s="9"/>
@@ -1209,20 +1236,21 @@
       <c r="E15" s="11"/>
       <c r="F15" s="12"/>
       <c r="G15" s="12"/>
-      <c r="H15" s="13"/>
-      <c r="I15" s="14"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="13"/>
       <c r="J15" s="14"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="28"/>
-      <c r="M15" s="11"/>
+      <c r="K15" s="14"/>
+      <c r="L15" s="17"/>
+      <c r="M15" s="28"/>
       <c r="N15" s="11"/>
       <c r="O15" s="11"/>
       <c r="P15" s="11"/>
-      <c r="Q15" s="32"/>
+      <c r="Q15" s="11"/>
       <c r="R15" s="32"/>
-      <c r="S15" s="33"/>
-    </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S15" s="32"/>
+      <c r="T15" s="33"/>
+    </row>
+    <row r="16" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A16" s="7"/>
       <c r="B16" s="8"/>
       <c r="C16" s="9"/>
@@ -1230,20 +1258,21 @@
       <c r="E16" s="11"/>
       <c r="F16" s="12"/>
       <c r="G16" s="12"/>
-      <c r="H16" s="13"/>
-      <c r="I16" s="14"/>
+      <c r="H16" s="12"/>
+      <c r="I16" s="13"/>
       <c r="J16" s="14"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="14"/>
-      <c r="M16" s="11"/>
+      <c r="K16" s="14"/>
+      <c r="L16" s="15"/>
+      <c r="M16" s="14"/>
       <c r="N16" s="11"/>
       <c r="O16" s="11"/>
       <c r="P16" s="11"/>
-      <c r="Q16" s="32"/>
+      <c r="Q16" s="11"/>
       <c r="R16" s="32"/>
-      <c r="S16" s="33"/>
-    </row>
-    <row r="17" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S16" s="32"/>
+      <c r="T16" s="33"/>
+    </row>
+    <row r="17" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A17" s="7"/>
       <c r="B17" s="8"/>
       <c r="C17" s="9"/>
@@ -1251,20 +1280,21 @@
       <c r="E17" s="11"/>
       <c r="F17" s="12"/>
       <c r="G17" s="12"/>
-      <c r="H17" s="13"/>
-      <c r="I17" s="14"/>
+      <c r="H17" s="12"/>
+      <c r="I17" s="13"/>
       <c r="J17" s="14"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="14"/>
-      <c r="M17" s="11"/>
+      <c r="K17" s="14"/>
+      <c r="L17" s="15"/>
+      <c r="M17" s="14"/>
       <c r="N17" s="11"/>
       <c r="O17" s="11"/>
       <c r="P17" s="11"/>
-      <c r="Q17" s="32"/>
+      <c r="Q17" s="11"/>
       <c r="R17" s="32"/>
-      <c r="S17" s="33"/>
-    </row>
-    <row r="18" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S17" s="32"/>
+      <c r="T17" s="33"/>
+    </row>
+    <row r="18" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A18" s="7"/>
       <c r="B18" s="8"/>
       <c r="C18" s="9"/>
@@ -1272,20 +1302,21 @@
       <c r="E18" s="11"/>
       <c r="F18" s="12"/>
       <c r="G18" s="12"/>
-      <c r="H18" s="13"/>
-      <c r="I18" s="14"/>
+      <c r="H18" s="12"/>
+      <c r="I18" s="13"/>
       <c r="J18" s="14"/>
-      <c r="K18" s="15"/>
-      <c r="L18" s="14"/>
-      <c r="M18" s="11"/>
+      <c r="K18" s="14"/>
+      <c r="L18" s="15"/>
+      <c r="M18" s="14"/>
       <c r="N18" s="11"/>
       <c r="O18" s="11"/>
       <c r="P18" s="11"/>
-      <c r="Q18" s="32"/>
+      <c r="Q18" s="11"/>
       <c r="R18" s="32"/>
-      <c r="S18" s="33"/>
-    </row>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S18" s="32"/>
+      <c r="T18" s="33"/>
+    </row>
+    <row r="19" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A19" s="7"/>
       <c r="B19" s="8"/>
       <c r="C19" s="9"/>
@@ -1293,20 +1324,21 @@
       <c r="E19" s="11"/>
       <c r="F19" s="12"/>
       <c r="G19" s="12"/>
-      <c r="H19" s="13"/>
-      <c r="I19" s="14"/>
+      <c r="H19" s="12"/>
+      <c r="I19" s="13"/>
       <c r="J19" s="14"/>
-      <c r="K19" s="15"/>
-      <c r="L19" s="14"/>
-      <c r="M19" s="11"/>
+      <c r="K19" s="14"/>
+      <c r="L19" s="15"/>
+      <c r="M19" s="14"/>
       <c r="N19" s="11"/>
       <c r="O19" s="11"/>
       <c r="P19" s="11"/>
-      <c r="Q19" s="32"/>
+      <c r="Q19" s="11"/>
       <c r="R19" s="32"/>
-      <c r="S19" s="33"/>
-    </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S19" s="32"/>
+      <c r="T19" s="33"/>
+    </row>
+    <row r="20" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A20" s="7"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
@@ -1314,20 +1346,21 @@
       <c r="E20" s="11"/>
       <c r="F20" s="12"/>
       <c r="G20" s="12"/>
-      <c r="H20" s="13"/>
-      <c r="I20" s="14"/>
+      <c r="H20" s="12"/>
+      <c r="I20" s="13"/>
       <c r="J20" s="14"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="14"/>
-      <c r="M20" s="11"/>
+      <c r="K20" s="14"/>
+      <c r="L20" s="15"/>
+      <c r="M20" s="14"/>
       <c r="N20" s="11"/>
       <c r="O20" s="11"/>
       <c r="P20" s="11"/>
-      <c r="Q20" s="32"/>
+      <c r="Q20" s="11"/>
       <c r="R20" s="32"/>
-      <c r="S20" s="33"/>
-    </row>
-    <row r="21" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S20" s="32"/>
+      <c r="T20" s="33"/>
+    </row>
+    <row r="21" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A21" s="7"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
@@ -1335,29 +1368,30 @@
       <c r="E21" s="11"/>
       <c r="F21" s="12"/>
       <c r="G21" s="12"/>
-      <c r="H21" s="13"/>
-      <c r="I21" s="14"/>
+      <c r="H21" s="12"/>
+      <c r="I21" s="13"/>
       <c r="J21" s="14"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="14"/>
-      <c r="M21" s="11"/>
+      <c r="K21" s="14"/>
+      <c r="L21" s="15"/>
+      <c r="M21" s="14"/>
       <c r="N21" s="11"/>
       <c r="O21" s="11"/>
       <c r="P21" s="11"/>
-      <c r="Q21" s="32"/>
+      <c r="Q21" s="11"/>
       <c r="R21" s="32"/>
-      <c r="S21" s="33"/>
-    </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.2">
+      <c r="S21" s="32"/>
+      <c r="T21" s="33"/>
+    </row>
+    <row r="22" spans="1:20" x14ac:dyDescent="0.2">
       <c r="A22" s="18"/>
-      <c r="K22" s="21"/>
+      <c r="L22" s="21"/>
     </row>
   </sheetData>
   <sheetProtection insertRows="0" insertHyperlinks="0" deleteRows="0" sort="0" autoFilter="0"/>
-  <autoFilter ref="A1:S22"/>
+  <autoFilter ref="A1:T22"/>
   <hyperlinks>
-    <hyperlink ref="H2" r:id="rId1" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
-    <hyperlink ref="H3" r:id="rId2" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
+    <hyperlink ref="I2" r:id="rId1" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
+    <hyperlink ref="I3" r:id="rId2" display="\\comp.npo\data\Public\buffer\Popova_EI\Миграция\Договоры\1.DOC"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
